--- a/export_resep.xlsx
+++ b/export_resep.xlsx
@@ -1,36 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\enigma\src.arm\github\catatjual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B12D56-D3C4-48D3-AA95-03F9BFE31F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Barang Jadi" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Resep" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Barang Jadi" sheetId="2" r:id="rId2"/>
+    <sheet name="Resep" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>kode_barang</t>
+  </si>
+  <si>
+    <t>harga_jual</t>
+  </si>
+  <si>
+    <t>master_bahan_nama</t>
+  </si>
+  <si>
+    <t>master_bahan_kode</t>
+  </si>
+  <si>
+    <t>barang_jadi_nama</t>
+  </si>
+  <si>
+    <t>barang_jadi_kode</t>
+  </si>
+  <si>
+    <t>jumlah_pemakaian</t>
+  </si>
+  <si>
+    <t>Tepung Terigu</t>
+  </si>
+  <si>
+    <t>Tepung_Terigu_TR001</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>Ciabatta</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>Sourdough</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>Brioche</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>Naan</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>Pita</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>Focaccia</t>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>Chapati</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
+    <t>RyeBread</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,80 +148,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,93 +450,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="D1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nama</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>kode_barang</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>harga_jual</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>daftar_bahan</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>hpp</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>master_roti</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[{"id_bahan": "1", "nama_bahan": "Tepung Terigu", "kode_bahan": "Tepung_Terigu_TR001", "harga_jual": "22", "jumlah_satuan": "20"}]</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5002</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="C8">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -505,94 +605,207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>master_bahan_nama</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>master_bahan_kode</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>barang_jadi_nama</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>barang_jadi_kode</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>jumlah_pemakaian</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tepung Terigu</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tepung_Terigu_TR001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Oatmeal</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Oatmeal_OM016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>33</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
